--- a/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>
